--- a/data_analysis/pcl2p/pcl2pfit.xlsx
+++ b/data_analysis/pcl2p/pcl2pfit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="1640" windowWidth="21300" windowHeight="15640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8100" yWindow="5200" windowWidth="19740" windowHeight="12300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,29 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$12:$B$12</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$F$43</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$F$20</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
@@ -39,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>a</t>
   </si>
@@ -72,9 +90,6 @@
   </si>
   <si>
     <t>v+ fit</t>
-  </si>
-  <si>
-    <t>fit of static lattice vs volume</t>
   </si>
   <si>
     <t>c</t>
@@ -183,8 +198,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -195,11 +214,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,7 +501,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,10 +900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,628 +923,522 @@
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>34.823999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>34.774999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>100</v>
       </c>
-      <c r="B7">
+      <c r="B2">
+        <v>69.202600000000004</v>
+      </c>
+      <c r="C2">
+        <v>9.5659999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <f>B2/2*(1+C2^2/3)^0.5</f>
+        <v>34.654031620392701</v>
+      </c>
+      <c r="E2">
+        <v>0.99117672000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.99108989999999997</v>
+      </c>
+      <c r="G2">
         <v>34.744999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>120</v>
-      </c>
-      <c r="B8">
-        <v>34.713000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>140</v>
-      </c>
-      <c r="B9">
-        <v>34.677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>160</v>
-      </c>
-      <c r="B10">
-        <v>34.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>180</v>
-      </c>
-      <c r="B11">
-        <v>34.597000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="H2">
+        <f>E2*B2</f>
+        <v>68.592006083472</v>
+      </c>
+      <c r="I2">
+        <f>H2/2*(1+C2^2/3)^0.5</f>
+        <v>34.348269396277125</v>
+      </c>
+      <c r="J2">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="K2">
+        <v>14.664</v>
+      </c>
+      <c r="L2">
+        <v>5.74</v>
+      </c>
+      <c r="M2">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="N2">
+        <v>111.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="B12">
+      <c r="B3">
+        <v>69.268000000000001</v>
+      </c>
+      <c r="C3">
+        <v>9.6350000000000005E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">B3/2*(1+C3^2/3)^0.5</f>
+        <v>34.687545040916334</v>
+      </c>
+      <c r="E3">
+        <v>0.98057278999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.98034100000000002</v>
+      </c>
+      <c r="G3">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>220</v>
-      </c>
-      <c r="B13">
-        <v>34.502000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>240</v>
-      </c>
-      <c r="B14">
-        <v>34.447000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>260</v>
-      </c>
-      <c r="B15">
-        <v>34.392000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>280</v>
-      </c>
-      <c r="B16">
-        <v>34.326999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>69.202600000000004</v>
-      </c>
-      <c r="C25">
-        <v>9.5659999999999995E-2</v>
-      </c>
-      <c r="D25">
-        <f>B25/2*(1+C25^2/3)^0.5</f>
-        <v>34.654031620392701</v>
-      </c>
-      <c r="E25">
-        <v>0.99117672000000001</v>
-      </c>
-      <c r="F25">
-        <v>0.99108989999999997</v>
-      </c>
-      <c r="G25">
-        <v>34.744999999999997</v>
-      </c>
-      <c r="H25">
-        <f>E25*B25</f>
-        <v>68.592006083472</v>
-      </c>
-      <c r="I25">
-        <f>H25/2*(1+C25^2/3)^0.5</f>
-        <v>34.348269396277125</v>
-      </c>
-      <c r="J25">
-        <v>306.81040000000002</v>
-      </c>
-      <c r="K25">
-        <v>14.664</v>
-      </c>
-      <c r="L25">
-        <v>5.74</v>
-      </c>
-      <c r="M25">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="N25">
-        <v>111.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>200</v>
-      </c>
-      <c r="B26">
-        <v>69.268000000000001</v>
-      </c>
-      <c r="C26">
-        <v>9.6350000000000005E-2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D30" si="0">B26/2*(1+C26^2/3)^0.5</f>
-        <v>34.687545040916334</v>
-      </c>
-      <c r="E26">
-        <v>0.98057278999999997</v>
-      </c>
-      <c r="F26">
-        <v>0.98034100000000002</v>
-      </c>
-      <c r="G26">
-        <v>34.549999999999997</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H30" si="1">E26*B26</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">E3*B3</f>
         <v>67.922316017719993</v>
       </c>
-      <c r="I26">
-        <f t="shared" ref="I26:I30" si="2">H26/2*(1+C26^2/3)^0.5</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="2">H3/2*(1+C3^2/3)^0.5</f>
         <v>34.013662819021995</v>
       </c>
-      <c r="J26">
+      <c r="J3">
         <v>313.0016</v>
       </c>
-      <c r="K26">
+      <c r="K3">
         <v>14.705</v>
       </c>
-      <c r="L26">
+      <c r="L3">
         <v>5.7869999999999999</v>
       </c>
-      <c r="M26">
+      <c r="M3">
         <v>3.9670000000000001</v>
       </c>
-      <c r="N26">
+      <c r="N3">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>225</v>
       </c>
-      <c r="B27">
+      <c r="B4">
         <v>69.281899999999993</v>
       </c>
-      <c r="C27">
+      <c r="C4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="D27">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>34.694672540264499</v>
       </c>
-      <c r="E27">
+      <c r="E4">
         <v>0.97750748499999995</v>
       </c>
-      <c r="F27">
+      <c r="F4">
         <v>0.97717627600000001</v>
       </c>
-      <c r="G27">
+      <c r="G4">
         <v>34.5</v>
       </c>
-      <c r="H27">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>67.723575825021484</v>
       </c>
-      <c r="I27">
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>33.914302097732502</v>
       </c>
-      <c r="J27">
+      <c r="J4">
         <v>314.887</v>
       </c>
-      <c r="K27">
+      <c r="K4">
         <v>14.72</v>
       </c>
-      <c r="L27">
+      <c r="L4">
         <v>5.8010000000000002</v>
       </c>
-      <c r="M27">
+      <c r="M4">
         <v>3.9820000000000002</v>
       </c>
-      <c r="N27">
+      <c r="N4">
         <v>112.17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>250</v>
       </c>
-      <c r="B28">
+      <c r="B5">
         <v>69.297600000000003</v>
       </c>
-      <c r="C28">
+      <c r="C5">
         <v>9.6869999999999998E-2</v>
       </c>
-      <c r="D28">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>34.702947241171188</v>
       </c>
-      <c r="E28">
+      <c r="E5">
         <v>0.97798278999999999</v>
       </c>
-      <c r="F28">
+      <c r="F5">
         <v>9.7733393799999999E-2</v>
       </c>
-      <c r="G28">
+      <c r="G5">
         <v>34.200000000000003</v>
       </c>
-      <c r="H28">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>67.771860188304004</v>
       </c>
-      <c r="I28">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>33.9388851641434</v>
       </c>
-      <c r="J28">
+      <c r="J5">
         <v>316.72899999999998</v>
       </c>
-      <c r="K28">
+      <c r="K5">
         <v>14.73</v>
       </c>
-      <c r="L28">
+      <c r="L5">
         <v>5.8120000000000003</v>
       </c>
-      <c r="M28">
+      <c r="M5">
         <v>3.9969999999999999</v>
       </c>
-      <c r="N28">
+      <c r="N5">
         <v>112.24</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>273</v>
       </c>
-      <c r="B29">
+      <c r="B6">
         <v>69.324100000000001</v>
       </c>
-      <c r="C29">
+      <c r="C6">
         <v>9.7140000000000004E-2</v>
       </c>
-      <c r="D29">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>34.716520089350233</v>
       </c>
-      <c r="E29">
+      <c r="E6">
         <v>0.97462764899999998</v>
       </c>
-      <c r="F29">
+      <c r="F6">
         <v>0.97424259999999996</v>
       </c>
-      <c r="G29">
+      <c r="G6">
         <v>34.25</v>
       </c>
-      <c r="H29">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>67.565184602040901</v>
       </c>
-      <c r="I29">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>33.835680356144692</v>
       </c>
-      <c r="J29">
+      <c r="J6">
         <v>319.22449999999998</v>
       </c>
-      <c r="K29">
+      <c r="K6">
         <v>14.747</v>
       </c>
-      <c r="L29">
+      <c r="L6">
         <v>5.83</v>
       </c>
-      <c r="M29">
+      <c r="M6">
         <v>4.0140000000000002</v>
       </c>
-      <c r="N29">
+      <c r="N6">
         <v>112.33</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>293</v>
       </c>
-      <c r="B30">
+      <c r="B7">
         <v>69.31</v>
       </c>
-      <c r="C30">
+      <c r="C7">
         <v>9.7489999999999993E-2</v>
       </c>
-      <c r="D30">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>34.709851843650021</v>
       </c>
-      <c r="E30">
+      <c r="E7">
         <v>0.97296689199999997</v>
       </c>
-      <c r="F30">
+      <c r="F7">
         <v>0.97258351399999998</v>
       </c>
-      <c r="G30">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>67.436335284519998</v>
       </c>
-      <c r="I30">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>33.77153667009663</v>
       </c>
-      <c r="J30">
+      <c r="J7">
         <v>320.60235999999998</v>
       </c>
-      <c r="K30">
+      <c r="K7">
         <v>14.762</v>
       </c>
-      <c r="L30">
+      <c r="L7">
         <v>5.84</v>
       </c>
-      <c r="M30">
+      <c r="M7">
         <v>4.0250000000000004</v>
       </c>
-      <c r="N30">
+      <c r="N7">
         <v>112.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>69.133487321877979</v>
+      </c>
+      <c r="B12">
+        <v>6.743925548619023E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>69</v>
-      </c>
-      <c r="B35">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="C14">
+        <v>34.654031620392701</v>
+      </c>
+      <c r="D14">
+        <v>69.202600000000004</v>
+      </c>
+      <c r="E14">
+        <f>$A$12+$B$12*A14</f>
+        <v>69.200926577364172</v>
+      </c>
+      <c r="F14">
+        <f>(E14-D14)^2</f>
+        <v>2.8003433181161459E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>313.0016</v>
+      </c>
+      <c r="C15">
+        <v>34.687545040916334</v>
+      </c>
+      <c r="D15">
+        <v>69.268000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E19" si="3">$A$12+$B$12*A15</f>
+        <v>69.268365832850364</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F19" si="4">(E15-D15)^2</f>
+        <v>1.3383367440492946E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>225</v>
+      </c>
+      <c r="B16">
+        <v>314.887</v>
+      </c>
+      <c r="C16">
+        <v>34.694672540264499</v>
+      </c>
+      <c r="D16">
+        <v>69.281899999999993</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>69.285225646721912</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>1.1059926119010118E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>250</v>
+      </c>
+      <c r="B17">
+        <v>316.72899999999998</v>
+      </c>
+      <c r="C17">
+        <v>34.702947241171188</v>
+      </c>
+      <c r="D17">
+        <v>69.297600000000003</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>69.30208546059346</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>2.0119356735459628E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>273</v>
+      </c>
+      <c r="B18">
+        <v>319.22449999999998</v>
+      </c>
+      <c r="C18">
+        <v>34.716520089350233</v>
+      </c>
+      <c r="D18">
+        <v>69.324100000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>69.317596489355282</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>4.2295650705983326E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>293</v>
+      </c>
+      <c r="B19" s="2">
+        <v>320.60235999999998</v>
+      </c>
+      <c r="C19" s="2">
+        <v>34.709851843650021</v>
+      </c>
+      <c r="D19" s="2">
+        <v>69.31</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>69.33108434045252</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4454941231768003E-4</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>100</v>
-      </c>
-      <c r="B37">
-        <v>306.81040000000002</v>
-      </c>
-      <c r="C37">
-        <v>34.654031620392701</v>
-      </c>
-      <c r="D37">
-        <v>69.202600000000004</v>
-      </c>
-      <c r="E37">
-        <f>$A$35+$B$35*A37</f>
-        <v>71</v>
-      </c>
-      <c r="F37">
-        <f>(E37-D37)^2</f>
-        <v>3.2306467599999862</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>200</v>
-      </c>
-      <c r="B38">
-        <v>313.0016</v>
-      </c>
-      <c r="C38">
-        <v>34.687545040916334</v>
-      </c>
-      <c r="D38">
-        <v>69.268000000000001</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ref="E38:E42" si="3">$A$35+$B$35*A38</f>
-        <v>73</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F42" si="4">(E38-D38)^2</f>
-        <v>13.927823999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>225</v>
-      </c>
-      <c r="B39">
-        <v>314.887</v>
-      </c>
-      <c r="C39">
-        <v>34.694672540264499</v>
-      </c>
-      <c r="D39">
-        <v>69.281899999999993</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>73.5</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>17.792367610000056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>250</v>
-      </c>
-      <c r="B40">
-        <v>316.72899999999998</v>
-      </c>
-      <c r="C40">
-        <v>34.702947241171188</v>
-      </c>
-      <c r="D40">
-        <v>69.297600000000003</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>22.112565759999974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>273</v>
-      </c>
-      <c r="B41">
-        <v>319.22449999999998</v>
-      </c>
-      <c r="C41">
-        <v>34.716520089350233</v>
-      </c>
-      <c r="D41">
-        <v>69.324100000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>74.459999999999994</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>26.377468809999922</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>SUM(F14:F18)</f>
+        <v>7.6409110552974157E-5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>293</v>
-      </c>
-      <c r="B42" s="2">
-        <v>320.60235999999998</v>
-      </c>
-      <c r="C42" s="2">
-        <v>34.709851843650021</v>
-      </c>
-      <c r="D42" s="2">
-        <v>69.31</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="3"/>
-        <v>74.86</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="4"/>
-        <v>30.80249999999997</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F43">
-        <f>SUM(F37:F41)</f>
-        <v>83.440872939999934</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_analysis/pcl2p/pcl2pfit.xlsx
+++ b/data_analysis/pcl2p/pcl2pfit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="5200" windowWidth="19740" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16320" yWindow="3900" windowWidth="12020" windowHeight="12300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$12:$B$12</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$25:$B$25</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$F$20</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$F$46</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>a</t>
   </si>
@@ -144,12 +144,24 @@
   </si>
   <si>
     <t>discarded</t>
+  </si>
+  <si>
+    <t>LINEAR FIT CELL VOLUME V.S. T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vol fit </t>
+  </si>
+  <si>
+    <t>LINEAR FIT OF CQ VS Volume cq=alph+beta*T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,7 +210,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,21 +220,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,8 +941,7 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" customWidth="1"/>
@@ -1431,14 +1459,378 @@
         <v>7.6409110552974157E-5</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>299.5378810558193</v>
+      </c>
+      <c r="B25">
+        <v>6.9621273588906296E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="C27">
+        <v>34.654031620392701</v>
+      </c>
+      <c r="D27">
+        <v>69.202600000000004</v>
+      </c>
+      <c r="E27">
+        <f>$A$25+$B$25*A27</f>
+        <v>306.50000841470995</v>
+      </c>
+      <c r="F27">
+        <f>(E27-B27)^2</f>
+        <v>9.6342936218878281E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>313.0016</v>
+      </c>
+      <c r="C28">
+        <v>34.687545040916334</v>
+      </c>
+      <c r="D28">
+        <v>69.268000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E32" si="5">$A$25+$B$25*A28</f>
+        <v>313.46213577360055</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F32" si="6">(E28-B28)^2</f>
+        <v>0.21209319876586111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>225</v>
+      </c>
+      <c r="B29">
+        <v>314.887</v>
+      </c>
+      <c r="C29">
+        <v>34.694672540264499</v>
+      </c>
+      <c r="D29">
+        <v>69.281899999999993</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>315.20266761332323</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>9.9646042101183066E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>316.72899999999998</v>
+      </c>
+      <c r="C30">
+        <v>34.702947241171188</v>
+      </c>
+      <c r="D30">
+        <v>69.297600000000003</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>316.94319945304585</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>4.5881405685147564E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>273</v>
+      </c>
+      <c r="B31">
+        <v>319.22449999999998</v>
+      </c>
+      <c r="C31">
+        <v>34.716520089350233</v>
+      </c>
+      <c r="D31">
+        <v>69.324100000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>318.54448874559074</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>0.46241530612322423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>293</v>
+      </c>
+      <c r="B32" s="2">
+        <v>320.60235999999998</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34.709851843650021</v>
+      </c>
+      <c r="D32" s="2">
+        <v>69.31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>319.93691421736884</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0.4428180896215686</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f>SUM(F27:F31)</f>
+        <v>0.9163788888942942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>66.23824518078645</v>
+      </c>
+      <c r="B38">
+        <v>9.6666666218907672E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>306.81040000000002</v>
+      </c>
+      <c r="C40">
+        <v>34.654031620392701</v>
+      </c>
+      <c r="D40">
+        <v>69.202600000000004</v>
+      </c>
+      <c r="E40">
+        <f>$A$38+$B$38*B40</f>
+        <v>69.204079033715402</v>
+      </c>
+      <c r="F40">
+        <f>(E40-D40)^2</f>
+        <v>2.1875407312847787E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>200</v>
+      </c>
+      <c r="B41">
+        <v>313.0016</v>
+      </c>
+      <c r="C41">
+        <v>34.687545040916334</v>
+      </c>
+      <c r="D41">
+        <v>69.268000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E45" si="7">$A$38+$B$38*B41</f>
+        <v>69.263927300104854</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F45" si="8">(E41-D41)^2</f>
+        <v>1.658688443593059E-5</v>
+      </c>
+    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42">
+        <v>225</v>
+      </c>
+      <c r="B42">
+        <v>314.887</v>
+      </c>
+      <c r="C42">
+        <v>34.694672540264499</v>
+      </c>
+      <c r="D42">
+        <v>69.281899999999993</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>69.282152833353763</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>6.3924704778428238E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>316.72899999999998</v>
+      </c>
+      <c r="C43">
+        <v>34.702947241171188</v>
+      </c>
+      <c r="D43">
+        <v>69.297600000000003</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>69.29995883327129</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>5.5640944017333985E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>273</v>
+      </c>
+      <c r="B44">
+        <v>319.22449999999998</v>
+      </c>
+      <c r="C44">
+        <v>34.716520089350233</v>
+      </c>
+      <c r="D44">
+        <v>69.324100000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>69.32408199982622</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>3.240062561724529E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>293</v>
+      </c>
+      <c r="B45" s="2">
+        <v>320.60235999999998</v>
+      </c>
+      <c r="C45" s="2">
+        <v>34.709851843650021</v>
+      </c>
+      <c r="D45" s="2">
+        <v>69.31</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>69.337401313097857</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5083195948665482E-4</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>SUM(F40:F44)</f>
+        <v>2.4402768279983368E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
